--- a/res/files/Water Bills.xlsx
+++ b/res/files/Water Bills.xlsx
@@ -20,13 +20,13 @@
     <t>stall_id</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>cubic/m</t>
   </si>
   <si>
     <t>w_amount</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
